--- a/duplicates_mask.xlsx
+++ b/duplicates_mask.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B477"/>
+  <dimension ref="A1:B895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -4091,7 +4091,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -4123,7 +4123,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -4171,7 +4171,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -4244,6 +4244,3350 @@
       </c>
       <c r="B477" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/duplicates_mask.xlsx
+++ b/duplicates_mask.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B895"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4067,7 +4067,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4083,7 +4083,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -4131,7 +4131,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -4171,7 +4171,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -4187,7 +4187,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -4211,7 +4211,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -4323,7 +4323,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -4355,7 +4355,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -4443,7 +4443,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -4539,7 +4539,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -4595,7 +4595,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -4619,7 +4619,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -4643,7 +4643,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -4699,7 +4699,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -4731,7 +4731,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -4755,7 +4755,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -4779,7 +4779,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -4811,7 +4811,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -4891,7 +4891,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -4915,7 +4915,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -4963,7 +4963,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -5003,7 +5003,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -5035,7 +5035,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -5083,7 +5083,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -5107,7 +5107,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -5123,7 +5123,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -5147,7 +5147,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -5195,7 +5195,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -5219,7 +5219,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -5267,7 +5267,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -5283,7 +5283,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -5299,7 +5299,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -5363,7 +5363,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -5395,7 +5395,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -5435,7 +5435,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -5451,7 +5451,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -5475,7 +5475,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -5499,7 +5499,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -5523,7 +5523,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -5587,7 +5587,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -5659,7 +5659,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -5715,7 +5715,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -5739,7 +5739,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -5755,7 +5755,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -5779,7 +5779,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -5803,7 +5803,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -5819,7 +5819,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -5899,7 +5899,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -5915,7 +5915,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -5939,7 +5939,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -5987,7 +5987,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -6019,7 +6019,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -6035,7 +6035,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -6051,7 +6051,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -6075,7 +6075,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -6211,7 +6211,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
@@ -6235,1359 +6235,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/duplicates_mask.xlsx
+++ b/duplicates_mask.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B726"/>
+  <dimension ref="A1:B1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -4051,7 +4051,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -4075,7 +4075,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -4099,7 +4099,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -4123,7 +4123,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -4147,7 +4147,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -4203,7 +4203,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -4219,7 +4219,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -4251,7 +4251,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -4275,7 +4275,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -4299,7 +4299,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -4323,7 +4323,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -4363,7 +4363,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -4387,7 +4387,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -4411,7 +4411,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -4435,7 +4435,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -4459,7 +4459,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -4483,7 +4483,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -4507,7 +4507,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -4531,7 +4531,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -4563,7 +4563,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -4579,7 +4579,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -4627,7 +4627,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -4643,7 +4643,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -4667,7 +4667,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -4683,7 +4683,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -4707,7 +4707,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -4731,7 +4731,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -4787,7 +4787,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -4843,7 +4843,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -4859,7 +4859,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -4875,7 +4875,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -4891,7 +4891,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -4907,7 +4907,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -4923,7 +4923,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -4939,7 +4939,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -4955,7 +4955,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -4971,7 +4971,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -4987,7 +4987,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -5003,7 +5003,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -5019,7 +5019,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -5059,7 +5059,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -5075,7 +5075,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -5139,7 +5139,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -5179,7 +5179,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -5211,7 +5211,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -5227,7 +5227,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -5243,7 +5243,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -5267,7 +5267,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -5315,7 +5315,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -5331,7 +5331,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -5347,7 +5347,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -5363,7 +5363,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -5379,7 +5379,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -5395,7 +5395,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -5411,7 +5411,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -5427,7 +5427,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -5443,7 +5443,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -5475,7 +5475,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -5491,7 +5491,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -5507,7 +5507,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -5523,7 +5523,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -5539,7 +5539,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -5563,7 +5563,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -5579,7 +5579,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -5595,7 +5595,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -5611,7 +5611,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -5627,7 +5627,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -5643,7 +5643,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -5659,7 +5659,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -5675,7 +5675,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -5691,7 +5691,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -5707,7 +5707,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -5723,7 +5723,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -5739,7 +5739,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -5763,7 +5763,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -5779,7 +5779,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -5795,7 +5795,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -5811,7 +5811,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -5835,7 +5835,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -5851,7 +5851,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -5867,7 +5867,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -5883,7 +5883,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -5899,7 +5899,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -5915,7 +5915,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -5931,7 +5931,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -5947,7 +5947,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -5963,7 +5963,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -5987,7 +5987,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -6003,7 +6003,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -6019,7 +6019,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -6035,7 +6035,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -6051,7 +6051,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -6067,7 +6067,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -6083,7 +6083,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -6099,7 +6099,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -6115,7 +6115,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -6131,7 +6131,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -6147,7 +6147,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -6163,7 +6163,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -6187,7 +6187,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -6203,7 +6203,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -6235,6 +6235,4118 @@
         <v>724</v>
       </c>
       <c r="B726" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="b">
         <v>0</v>
       </c>
     </row>
